--- a/documents/팀프로젝트/팀구성_개발일정_DB설계/통합테스트 시나리오_200219_1221.xlsx
+++ b/documents/팀프로젝트/팀구성_개발일정_DB설계/통합테스트 시나리오_200219_1221.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Projects\hyeonuk_s_lab\JavaSWEngineeringCourse\documents\팀프로젝트\팀구성_개발일정_DB설계\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22AF2E0-808B-4A7B-BB41-D34CE7900B55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23250" windowHeight="12165" tabRatio="891"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오테스트" sheetId="61" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Lee,Eunjoo</author>
   </authors>
   <commentList>
-    <comment ref="J9" authorId="0">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,10 +127,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Algo 이론 학습 및 코딩문제 풀기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>코딩이론 학습</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -230,30 +232,6 @@
   </si>
   <si>
     <t>챕터별 마무리 문제 풀기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>코딩문제 현황 조회</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>코딩문제 풀기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>정답내역, 코딩문제 목록 확인</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>정답내역, 코딩문제</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제 선택</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>코딩문제</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -275,11 +253,37 @@
     <t>작성코드, 정답내역</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>도전문제 현황 조회</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전문제 풀기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전문제 선택</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답내역, 도전문제</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전문제</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algo 이론 학습 및 도전문제 풀기</t>
+  </si>
+  <si>
+    <t>정답내역, 도전문제 목록 확인</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -932,6 +936,111 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -941,132 +1050,27 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
-    <cellStyle name="표준 2 2" xfId="2"/>
-    <cellStyle name="표준 2 3" xfId="3"/>
-    <cellStyle name="표준 2 4" xfId="4"/>
-    <cellStyle name="표준 2 5" xfId="5"/>
-    <cellStyle name="표준 3" xfId="6"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="표준 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="표준 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1124,7 +1128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1157,9 +1161,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1192,6 +1213,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1367,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -1375,7 +1413,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1394,153 +1432,153 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="49" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="51" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="53" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="A11" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:10" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="20">
@@ -1548,17 +1586,17 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1570,17 +1608,17 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="8"/>
@@ -1592,17 +1630,17 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="8"/>
@@ -1614,17 +1652,17 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="8"/>
@@ -1643,18 +1681,18 @@
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+      <c r="A17" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="20">
@@ -1662,15 +1700,15 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="8"/>
@@ -1682,15 +1720,15 @@
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="8"/>
@@ -1702,15 +1740,15 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1722,15 +1760,15 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="8"/>
@@ -1761,18 +1799,18 @@
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="A24" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="20">
@@ -1780,15 +1818,15 @@
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="8"/>
@@ -1800,15 +1838,15 @@
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -1820,15 +1858,15 @@
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -1849,11 +1887,11 @@
     <row r="29" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="62"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="10"/>
@@ -1896,14 +1934,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:C6"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="A9:A10"/>
@@ -1913,12 +1949,14 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A4:C6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
